--- a/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateContextFlow4.xlsx
+++ b/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateContextFlow4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.DocumentTemplates\Tests\WebVella.DocumentTemplates.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FEFF44-8209-430A-9191-9022C3CF20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552E72C-601C-4148-9B5D-36B9A39891F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13296" yWindow="5556" windowWidth="28776" windowHeight="15456" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="57480" yWindow="12375" windowWidth="29040" windowHeight="15720" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>position</t>
   </si>
@@ -42,13 +42,19 @@
     <t>{{position(F=H)}}</t>
   </si>
   <si>
-    <t>{{name}}</t>
-  </si>
-  <si>
     <t>{{sku}}</t>
   </si>
   <si>
-    <t>{{price(C=H)}}</t>
+    <t>{{name(PC=B1:B1)}}</t>
+  </si>
+  <si>
+    <t>{{price(PC=B1)}}</t>
+  </si>
+  <si>
+    <t>{{position(PC=None)}}</t>
+  </si>
+  <si>
+    <t>{{position(PC=None,F=H)}}</t>
   </si>
 </sst>
 </file>
@@ -427,43 +433,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81CDE04-363B-4839-A800-71666C3D7C99}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="63.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
